--- a/data/Paint_database2.xlsx
+++ b/data/Paint_database2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sfuller\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\NEWLIN_MEADOWS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F389FFCC-1C79-4F6F-B9A2-A5CB4F5644A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A388742E-B7D5-4802-90E2-D62635BF2C51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39195" yWindow="3360" windowWidth="31695" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -274,9 +274,6 @@
     <t>Colonnade</t>
   </si>
   <si>
-    <t>98C597</t>
-  </si>
-  <si>
     <t>Apple Peel</t>
   </si>
   <si>
@@ -1667,6 +1664,9 @@
   </si>
   <si>
     <t>Homburg Gray</t>
+  </si>
+  <si>
+    <t>7C7369</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
@@ -2136,7 +2136,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2475,23 +2475,23 @@
       </c>
       <c r="D11" s="5" t="str">
         <f>VLOOKUP(C11,Sheet2!B:C,2,FALSE)</f>
-        <v>98C597</v>
+        <v>7C7369</v>
       </c>
       <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s">
         <v>81</v>
-      </c>
-      <c r="I11" t="s">
-        <v>82</v>
       </c>
       <c r="J11" s="5" t="str">
         <f>VLOOKUP(I11,Sheet2!B:C,2,FALSE)</f>
         <v>F3EDE2</v>
       </c>
       <c r="N11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O11" t="s">
         <v>84</v>
-      </c>
-      <c r="O11" t="s">
-        <v>85</v>
       </c>
       <c r="P11" s="2" t="str">
         <f>VLOOKUP(O11,Sheet2!B:C,2,FALSE)</f>
@@ -2503,17 +2503,17 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
         <v>87</v>
-      </c>
-      <c r="B12" t="s">
-        <v>88</v>
       </c>
       <c r="D12" s="5" t="e">
         <f>VLOOKUP(C12,Sheet2!B:C,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="H12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J12" s="5" t="e">
         <f>VLOOKUP(I12,Sheet2!B:C,2,FALSE)</f>
@@ -2529,33 +2529,33 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
         <v>89</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>91</v>
       </c>
       <c r="D13" s="5" t="str">
         <f>VLOOKUP(C13,Sheet2!B:C,2,FALSE)</f>
         <v>908a83</v>
       </c>
       <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" t="s">
         <v>93</v>
-      </c>
-      <c r="I13" t="s">
-        <v>94</v>
       </c>
       <c r="J13" s="5" t="str">
         <f>VLOOKUP(I13,Sheet2!B:C,2,FALSE)</f>
         <v>e5dfd2</v>
       </c>
       <c r="N13" t="s">
+        <v>95</v>
+      </c>
+      <c r="O13" t="s">
         <v>96</v>
-      </c>
-      <c r="O13" t="s">
-        <v>97</v>
       </c>
       <c r="P13" s="2" t="str">
         <f>VLOOKUP(O13,Sheet2!B:C,2,FALSE)</f>
@@ -2567,33 +2567,33 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
         <v>90</v>
-      </c>
-      <c r="C14" t="s">
-        <v>91</v>
       </c>
       <c r="D14" s="5" t="str">
         <f>VLOOKUP(C14,Sheet2!B:C,2,FALSE)</f>
         <v>908a83</v>
       </c>
       <c r="H14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" t="s">
         <v>93</v>
-      </c>
-      <c r="I14" t="s">
-        <v>94</v>
       </c>
       <c r="J14" s="5" t="str">
         <f>VLOOKUP(I14,Sheet2!B:C,2,FALSE)</f>
         <v>e5dfd2</v>
       </c>
       <c r="N14" t="s">
+        <v>99</v>
+      </c>
+      <c r="O14" t="s">
         <v>100</v>
-      </c>
-      <c r="O14" t="s">
-        <v>101</v>
       </c>
       <c r="P14" s="2" t="str">
         <f>VLOOKUP(O14,Sheet2!B:C,2,FALSE)</f>
@@ -2605,33 +2605,33 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" t="s">
         <v>90</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
       </c>
       <c r="D15" s="5" t="str">
         <f>VLOOKUP(C15,Sheet2!B:C,2,FALSE)</f>
         <v>908a83</v>
       </c>
       <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s">
         <v>93</v>
-      </c>
-      <c r="I15" t="s">
-        <v>94</v>
       </c>
       <c r="J15" s="5" t="str">
         <f>VLOOKUP(I15,Sheet2!B:C,2,FALSE)</f>
         <v>e5dfd2</v>
       </c>
       <c r="N15" t="s">
+        <v>95</v>
+      </c>
+      <c r="O15" t="s">
         <v>96</v>
-      </c>
-      <c r="O15" t="s">
-        <v>97</v>
       </c>
       <c r="P15" s="2" t="str">
         <f>VLOOKUP(O15,Sheet2!B:C,2,FALSE)</f>
@@ -2643,23 +2643,23 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
         <v>104</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>105</v>
-      </c>
-      <c r="C16" t="s">
-        <v>106</v>
       </c>
       <c r="D16" s="5" t="str">
         <f>VLOOKUP(C16,Sheet2!B:C,2,FALSE)</f>
         <v>7b8070</v>
       </c>
       <c r="H16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" t="s">
         <v>108</v>
-      </c>
-      <c r="I16" t="s">
-        <v>109</v>
       </c>
       <c r="J16" s="5" t="str">
         <f>VLOOKUP(I16,Sheet2!B:C,2,FALSE)</f>
@@ -2675,33 +2675,33 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
         <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>106</v>
       </c>
       <c r="D17" s="5" t="str">
         <f>VLOOKUP(C17,Sheet2!B:C,2,FALSE)</f>
         <v>7b8070</v>
       </c>
       <c r="H17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" t="s">
         <v>112</v>
-      </c>
-      <c r="I17" t="s">
-        <v>113</v>
       </c>
       <c r="J17" s="5" t="str">
         <f>VLOOKUP(I17,Sheet2!B:C,2,FALSE)</f>
         <v>d1c7b8</v>
       </c>
       <c r="N17" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" t="s">
         <v>115</v>
-      </c>
-      <c r="O17" t="s">
-        <v>116</v>
       </c>
       <c r="P17" s="2" t="str">
         <f>VLOOKUP(O17,Sheet2!B:C,2,FALSE)</f>
@@ -2713,23 +2713,23 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s">
         <v>115</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
       </c>
       <c r="D18" s="5" t="str">
         <f>VLOOKUP(C18,Sheet2!B:C,2,FALSE)</f>
         <v>6b6757</v>
       </c>
       <c r="H18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" t="s">
         <v>119</v>
-      </c>
-      <c r="I18" t="s">
-        <v>120</v>
       </c>
       <c r="J18" s="5" t="str">
         <f>VLOOKUP(I18,Sheet2!B:C,2,FALSE)</f>
@@ -2745,33 +2745,33 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
         <v>122</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>123</v>
-      </c>
-      <c r="C19" t="s">
-        <v>124</v>
       </c>
       <c r="D19" s="5" t="str">
         <f>VLOOKUP(C19,Sheet2!B:C,2,FALSE)</f>
         <v>988f85</v>
       </c>
       <c r="H19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" t="s">
         <v>126</v>
-      </c>
-      <c r="I19" t="s">
-        <v>127</v>
       </c>
       <c r="J19" s="5" t="str">
         <f>VLOOKUP(I19,Sheet2!B:C,2,FALSE)</f>
         <v>e8decd</v>
       </c>
       <c r="N19" t="s">
+        <v>128</v>
+      </c>
+      <c r="O19" t="s">
         <v>129</v>
-      </c>
-      <c r="O19" t="s">
-        <v>130</v>
       </c>
       <c r="P19" s="2" t="str">
         <f>VLOOKUP(O19,Sheet2!B:C,2,FALSE)</f>
@@ -2783,61 +2783,61 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
         <v>123</v>
-      </c>
-      <c r="C20" t="s">
-        <v>124</v>
       </c>
       <c r="D20" s="5" t="str">
         <f>VLOOKUP(C20,Sheet2!B:C,2,FALSE)</f>
         <v>988f85</v>
       </c>
       <c r="H20" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" t="s">
         <v>133</v>
-      </c>
-      <c r="I20" t="s">
-        <v>134</v>
       </c>
       <c r="J20" s="5" t="str">
         <f>VLOOKUP(I20,Sheet2!B:C,2,FALSE)</f>
         <v>edeae0</v>
       </c>
       <c r="N20" t="s">
+        <v>95</v>
+      </c>
+      <c r="O20" t="s">
         <v>96</v>
-      </c>
-      <c r="O20" t="s">
-        <v>97</v>
       </c>
       <c r="P20" s="2" t="str">
         <f>VLOOKUP(O20,Sheet2!B:C,2,FALSE)</f>
         <v>4f4842</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" t="s">
         <v>123</v>
-      </c>
-      <c r="C21" t="s">
-        <v>124</v>
       </c>
       <c r="D21" s="5" t="str">
         <f>VLOOKUP(C21,Sheet2!B:C,2,FALSE)</f>
         <v>988f85</v>
       </c>
       <c r="H21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I21" t="s">
         <v>138</v>
-      </c>
-      <c r="I21" t="s">
-        <v>139</v>
       </c>
       <c r="J21" s="5" t="str">
         <f>VLOOKUP(I21,Sheet2!B:C,2,FALSE)</f>
@@ -2859,23 +2859,23 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s">
         <v>141</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>142</v>
-      </c>
-      <c r="C22" t="s">
-        <v>143</v>
       </c>
       <c r="D22" s="5">
         <f>VLOOKUP(C22,Sheet2!B:C,2,FALSE)</f>
         <v>827466</v>
       </c>
       <c r="H22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" t="s">
         <v>144</v>
-      </c>
-      <c r="I22" t="s">
-        <v>145</v>
       </c>
       <c r="J22" s="5">
         <f>VLOOKUP(I22,Sheet2!B:C,2,FALSE)</f>
@@ -2891,33 +2891,33 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
         <v>142</v>
-      </c>
-      <c r="C23" t="s">
-        <v>143</v>
       </c>
       <c r="D23" s="5">
         <f>VLOOKUP(C23,Sheet2!B:C,2,FALSE)</f>
         <v>827466</v>
       </c>
       <c r="H23" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" t="s">
         <v>147</v>
-      </c>
-      <c r="I23" t="s">
-        <v>148</v>
       </c>
       <c r="J23" s="5" t="str">
         <f>VLOOKUP(I23,Sheet2!B:C,2,FALSE)</f>
         <v>dbcebd</v>
       </c>
       <c r="N23" t="s">
+        <v>149</v>
+      </c>
+      <c r="O23" t="s">
         <v>150</v>
-      </c>
-      <c r="O23" t="s">
-        <v>151</v>
       </c>
       <c r="P23" s="2" t="str">
         <f>VLOOKUP(O23,Sheet2!B:C,2,FALSE)</f>
@@ -2929,80 +2929,80 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" t="s">
         <v>153</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>154</v>
-      </c>
-      <c r="C24" t="s">
-        <v>155</v>
       </c>
       <c r="D24" s="5" t="str">
         <f>VLOOKUP(C24,Sheet2!B:C,2,FALSE)</f>
         <v>aba39a</v>
       </c>
       <c r="E24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" t="s">
         <v>157</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>158</v>
       </c>
-      <c r="G24" t="s">
-        <v>159</v>
-      </c>
       <c r="H24" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" t="s">
         <v>138</v>
-      </c>
-      <c r="I24" t="s">
-        <v>139</v>
       </c>
       <c r="J24" s="5" t="str">
         <f>VLOOKUP(I24,Sheet2!B:C,2,FALSE)</f>
         <v>ede1ce</v>
       </c>
       <c r="N24" t="s">
+        <v>159</v>
+      </c>
+      <c r="O24" t="s">
         <v>160</v>
-      </c>
-      <c r="O24" t="s">
-        <v>161</v>
       </c>
       <c r="P24" s="2" t="str">
         <f>VLOOKUP(O24,Sheet2!B:C,2,FALSE)</f>
         <v>4c6b8a</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" t="s">
         <v>163</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>164</v>
-      </c>
-      <c r="C25" t="s">
-        <v>165</v>
       </c>
       <c r="D25" s="5" t="str">
         <f>VLOOKUP(C25,Sheet2!B:C,2,FALSE)</f>
         <v>78736e</v>
       </c>
       <c r="H25" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" t="s">
         <v>93</v>
-      </c>
-      <c r="I25" t="s">
-        <v>94</v>
       </c>
       <c r="J25" s="5" t="str">
         <f>VLOOKUP(I25,Sheet2!B:C,2,FALSE)</f>
         <v>e5dfd2</v>
       </c>
       <c r="N25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O25" t="s">
         <v>84</v>
-      </c>
-      <c r="O25" t="s">
-        <v>85</v>
       </c>
       <c r="P25" s="2" t="str">
         <f>VLOOKUP(O25,Sheet2!B:C,2,FALSE)</f>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" t="s">
         <v>164</v>
-      </c>
-      <c r="C26" t="s">
-        <v>165</v>
       </c>
       <c r="D26" s="5" t="str">
         <f>VLOOKUP(C26,Sheet2!B:C,2,FALSE)</f>
@@ -3037,10 +3037,10 @@
         <v>edece6</v>
       </c>
       <c r="N26" t="s">
+        <v>83</v>
+      </c>
+      <c r="O26" t="s">
         <v>84</v>
-      </c>
-      <c r="O26" t="s">
-        <v>85</v>
       </c>
       <c r="P26" s="2" t="str">
         <f>VLOOKUP(O26,Sheet2!B:C,2,FALSE)</f>
@@ -3052,13 +3052,13 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" t="s">
         <v>164</v>
-      </c>
-      <c r="C27" t="s">
-        <v>165</v>
       </c>
       <c r="D27" s="5" t="str">
         <f>VLOOKUP(C27,Sheet2!B:C,2,FALSE)</f>
@@ -3075,10 +3075,10 @@
         <v>edece6</v>
       </c>
       <c r="N27" t="s">
+        <v>168</v>
+      </c>
+      <c r="O27" t="s">
         <v>169</v>
-      </c>
-      <c r="O27" t="s">
-        <v>170</v>
       </c>
       <c r="P27" s="2" t="str">
         <f>VLOOKUP(O27,Sheet2!B:C,2,FALSE)</f>
@@ -3090,13 +3090,13 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" t="s">
         <v>172</v>
       </c>
-      <c r="B28" t="s">
-        <v>173</v>
-      </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D28" s="5" t="str">
         <f>VLOOKUP(C28,Sheet2!B:C,2,FALSE)</f>
@@ -3112,10 +3112,10 @@
         <v>20</v>
       </c>
       <c r="H28" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" t="s">
         <v>174</v>
-      </c>
-      <c r="I28" t="s">
-        <v>175</v>
       </c>
       <c r="J28" s="5" t="str">
         <f>VLOOKUP(I28,Sheet2!B:C,2,FALSE)</f>
@@ -3131,23 +3131,23 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D29" s="5" t="str">
         <f>VLOOKUP(C29,Sheet2!B:C,2,FALSE)</f>
         <v>78736e</v>
       </c>
       <c r="H29" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" t="s">
         <v>178</v>
-      </c>
-      <c r="I29" t="s">
-        <v>179</v>
       </c>
       <c r="J29" s="5" t="str">
         <f>VLOOKUP(I29,Sheet2!B:C,2,FALSE)</f>
@@ -3163,61 +3163,61 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D30" s="5" t="str">
         <f>VLOOKUP(C30,Sheet2!B:C,2,FALSE)</f>
         <v>78736e</v>
       </c>
       <c r="H30" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" t="s">
         <v>182</v>
-      </c>
-      <c r="I30" t="s">
-        <v>183</v>
       </c>
       <c r="J30" s="5" t="str">
         <f>VLOOKUP(I30,Sheet2!B:C,2,FALSE)</f>
         <v>F0F1E7</v>
       </c>
       <c r="N30" t="s">
+        <v>184</v>
+      </c>
+      <c r="O30" t="s">
         <v>185</v>
-      </c>
-      <c r="O30" t="s">
-        <v>186</v>
       </c>
       <c r="P30" s="2" t="str">
         <f>VLOOKUP(O30,Sheet2!B:C,2,FALSE)</f>
         <v>147D87</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D31" s="5" t="str">
         <f>VLOOKUP(C31,Sheet2!B:C,2,FALSE)</f>
         <v>78736e</v>
       </c>
       <c r="H31" t="s">
+        <v>188</v>
+      </c>
+      <c r="I31" t="s">
         <v>189</v>
-      </c>
-      <c r="I31" t="s">
-        <v>190</v>
       </c>
       <c r="J31" s="5" t="str">
         <f>VLOOKUP(I31,Sheet2!B:C,2,FALSE)</f>
@@ -3234,28 +3234,28 @@
         <v>2f3d4c</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D32" s="5" t="str">
         <f>VLOOKUP(C32,Sheet2!B:C,2,FALSE)</f>
         <v>78736e</v>
       </c>
       <c r="H32" t="s">
+        <v>192</v>
+      </c>
+      <c r="I32" t="s">
         <v>193</v>
-      </c>
-      <c r="I32" t="s">
-        <v>194</v>
       </c>
       <c r="J32" s="5" t="str">
         <f>VLOOKUP(I32,Sheet2!B:C,2,FALSE)</f>
@@ -3266,28 +3266,28 @@
         <v>#N/A</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D33" s="5" t="str">
         <f>VLOOKUP(C33,Sheet2!B:C,2,FALSE)</f>
         <v>78736e</v>
       </c>
       <c r="H33" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" t="s">
         <v>197</v>
-      </c>
-      <c r="I33" t="s">
-        <v>198</v>
       </c>
       <c r="J33" s="5" t="str">
         <f>VLOOKUP(I33,Sheet2!B:C,2,FALSE)</f>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" t="s">
         <v>200</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>201</v>
-      </c>
-      <c r="C34" t="s">
-        <v>202</v>
       </c>
       <c r="D34" s="5" t="str">
         <f>VLOOKUP(C34,Sheet2!B:C,2,FALSE)</f>
@@ -3325,10 +3325,10 @@
         <v>76</v>
       </c>
       <c r="H34" t="s">
+        <v>203</v>
+      </c>
+      <c r="I34" t="s">
         <v>204</v>
-      </c>
-      <c r="I34" t="s">
-        <v>205</v>
       </c>
       <c r="J34" s="5" t="str">
         <f>VLOOKUP(I34,Sheet2!B:C,2,FALSE)</f>
@@ -3344,60 +3344,60 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" t="s">
         <v>207</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>208</v>
-      </c>
-      <c r="C35" t="s">
-        <v>209</v>
       </c>
       <c r="D35" s="5">
         <f>VLOOKUP(C35,Sheet2!B:C,2,FALSE)</f>
         <v>636562</v>
       </c>
       <c r="E35" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" t="s">
         <v>201</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>202</v>
       </c>
-      <c r="G35" t="s">
-        <v>203</v>
-      </c>
       <c r="H35" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35" t="s">
         <v>197</v>
-      </c>
-      <c r="I35" t="s">
-        <v>198</v>
       </c>
       <c r="J35" s="5" t="str">
         <f>VLOOKUP(I35,Sheet2!B:C,2,FALSE)</f>
         <v>eeefea</v>
       </c>
       <c r="N35" t="s">
+        <v>209</v>
+      </c>
+      <c r="O35" t="s">
         <v>210</v>
-      </c>
-      <c r="O35" t="s">
-        <v>211</v>
       </c>
       <c r="P35" s="2">
         <f>VLOOKUP(O35,Sheet2!B:C,2,FALSE)</f>
         <v>283849</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B36" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" t="s">
         <v>208</v>
-      </c>
-      <c r="C36" t="s">
-        <v>209</v>
       </c>
       <c r="D36" s="5">
         <f>VLOOKUP(C36,Sheet2!B:C,2,FALSE)</f>
@@ -3429,23 +3429,23 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
         <v>208</v>
-      </c>
-      <c r="C37" t="s">
-        <v>209</v>
       </c>
       <c r="D37" s="5">
         <f>VLOOKUP(C37,Sheet2!B:C,2,FALSE)</f>
         <v>636562</v>
       </c>
       <c r="H37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I37" t="s">
         <v>214</v>
-      </c>
-      <c r="I37" t="s">
-        <v>215</v>
       </c>
       <c r="J37" s="5" t="str">
         <f>VLOOKUP(I37,Sheet2!B:C,2,FALSE)</f>
@@ -3456,76 +3456,76 @@
         <v>#N/A</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
         <v>208</v>
-      </c>
-      <c r="C38" t="s">
-        <v>209</v>
       </c>
       <c r="D38" s="5">
         <f>VLOOKUP(C38,Sheet2!B:C,2,FALSE)</f>
         <v>636562</v>
       </c>
       <c r="H38" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" t="s">
         <v>218</v>
-      </c>
-      <c r="I38" t="s">
-        <v>219</v>
       </c>
       <c r="J38" s="5" t="str">
         <f>VLOOKUP(I38,Sheet2!B:C,2,FALSE)</f>
         <v>e8dcc6</v>
       </c>
       <c r="N38" t="s">
+        <v>220</v>
+      </c>
+      <c r="O38" t="s">
         <v>221</v>
-      </c>
-      <c r="O38" t="s">
-        <v>222</v>
       </c>
       <c r="P38" s="2" t="str">
         <f>VLOOKUP(O38,Sheet2!B:C,2,FALSE)</f>
         <v>acad97</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B39" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" t="s">
         <v>208</v>
-      </c>
-      <c r="C39" t="s">
-        <v>209</v>
       </c>
       <c r="D39" s="5">
         <f>VLOOKUP(C39,Sheet2!B:C,2,FALSE)</f>
         <v>636562</v>
       </c>
       <c r="H39" t="s">
+        <v>188</v>
+      </c>
+      <c r="I39" t="s">
         <v>189</v>
-      </c>
-      <c r="I39" t="s">
-        <v>190</v>
       </c>
       <c r="J39" s="5" t="str">
         <f>VLOOKUP(I39,Sheet2!B:C,2,FALSE)</f>
         <v>f7f7f1</v>
       </c>
       <c r="N39" t="s">
+        <v>224</v>
+      </c>
+      <c r="O39" t="s">
         <v>225</v>
-      </c>
-      <c r="O39" t="s">
-        <v>226</v>
       </c>
       <c r="P39" s="2">
         <f>VLOOKUP(O39,Sheet2!B:C,2,FALSE)</f>
@@ -3537,32 +3537,32 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" t="s">
+        <v>226</v>
+      </c>
+      <c r="B40" t="s">
         <v>227</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>228</v>
-      </c>
-      <c r="C40" t="s">
-        <v>229</v>
       </c>
       <c r="D40" s="5" t="str">
         <f>VLOOKUP(C40,Sheet2!B:C,2,FALSE)</f>
         <v>8b8372</v>
       </c>
       <c r="E40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" t="s">
         <v>115</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>116</v>
       </c>
-      <c r="G40" t="s">
-        <v>117</v>
-      </c>
       <c r="H40" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" t="s">
         <v>112</v>
-      </c>
-      <c r="I40" t="s">
-        <v>113</v>
       </c>
       <c r="J40" s="5" t="str">
         <f>VLOOKUP(I40,Sheet2!B:C,2,FALSE)</f>
@@ -3578,33 +3578,33 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" t="s">
+        <v>230</v>
+      </c>
+      <c r="B41" t="s">
         <v>231</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>232</v>
-      </c>
-      <c r="C41" t="s">
-        <v>233</v>
       </c>
       <c r="D41" s="5" t="str">
         <f>VLOOKUP(C41,Sheet2!B:C,2,FALSE)</f>
         <v>7e6f59</v>
       </c>
       <c r="H41" t="s">
+        <v>234</v>
+      </c>
+      <c r="I41" t="s">
         <v>235</v>
-      </c>
-      <c r="I41" t="s">
-        <v>236</v>
       </c>
       <c r="J41" s="5" t="str">
         <f>VLOOKUP(I41,Sheet2!B:C,2,FALSE)</f>
         <v>b8a992</v>
       </c>
       <c r="N41" t="s">
+        <v>237</v>
+      </c>
+      <c r="O41" t="s">
         <v>238</v>
-      </c>
-      <c r="O41" t="s">
-        <v>239</v>
       </c>
       <c r="P41" s="2" t="str">
         <f>VLOOKUP(O41,Sheet2!B:C,2,FALSE)</f>
@@ -3616,33 +3616,33 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" t="s">
         <v>241</v>
       </c>
-      <c r="B42" t="s">
-        <v>242</v>
-      </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D42" s="5">
         <f>VLOOKUP(C42,Sheet2!B:C,2,FALSE)</f>
         <v>283849</v>
       </c>
       <c r="H42" t="s">
+        <v>188</v>
+      </c>
+      <c r="I42" t="s">
         <v>189</v>
-      </c>
-      <c r="I42" t="s">
-        <v>190</v>
       </c>
       <c r="J42" s="5" t="str">
         <f>VLOOKUP(I42,Sheet2!B:C,2,FALSE)</f>
         <v>f7f7f1</v>
       </c>
       <c r="N42" t="s">
+        <v>242</v>
+      </c>
+      <c r="O42" t="s">
         <v>243</v>
-      </c>
-      <c r="O42" t="s">
-        <v>244</v>
       </c>
       <c r="P42" s="2">
         <f>VLOOKUP(O42,Sheet2!B:C,2,FALSE)</f>
@@ -3654,33 +3654,33 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" t="s">
         <v>245</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>246</v>
-      </c>
-      <c r="C43" t="s">
-        <v>247</v>
       </c>
       <c r="D43" s="5" t="str">
         <f>VLOOKUP(C43,Sheet2!B:C,2,FALSE)</f>
         <v>65503d</v>
       </c>
       <c r="H43" t="s">
+        <v>248</v>
+      </c>
+      <c r="I43" t="s">
         <v>249</v>
-      </c>
-      <c r="I43" t="s">
-        <v>250</v>
       </c>
       <c r="J43" s="5" t="str">
         <f>VLOOKUP(I43,Sheet2!B:C,2,FALSE)</f>
         <v>d7c5b3</v>
       </c>
       <c r="N43" t="s">
+        <v>251</v>
+      </c>
+      <c r="O43" t="s">
         <v>252</v>
-      </c>
-      <c r="O43" t="s">
-        <v>253</v>
       </c>
       <c r="P43" s="2">
         <f>VLOOKUP(O43,Sheet2!B:C,2,FALSE)</f>
@@ -3692,33 +3692,33 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" t="s">
+        <v>253</v>
+      </c>
+      <c r="B44" t="s">
         <v>254</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>255</v>
-      </c>
-      <c r="C44" t="s">
-        <v>256</v>
       </c>
       <c r="D44" s="5" t="str">
         <f>VLOOKUP(C44,Sheet2!B:C,2,FALSE)</f>
         <v>5F6D6C</v>
       </c>
       <c r="H44" t="s">
+        <v>257</v>
+      </c>
+      <c r="I44" t="s">
         <v>258</v>
-      </c>
-      <c r="I44" t="s">
-        <v>259</v>
       </c>
       <c r="J44" s="5" t="str">
         <f>VLOOKUP(I44,Sheet2!B:C,2,FALSE)</f>
         <v>DAD1C4</v>
       </c>
       <c r="N44" t="s">
+        <v>260</v>
+      </c>
+      <c r="O44" t="s">
         <v>261</v>
-      </c>
-      <c r="O44" t="s">
-        <v>262</v>
       </c>
       <c r="P44" s="2" t="str">
         <f>VLOOKUP(O44,Sheet2!B:C,2,FALSE)</f>
@@ -3730,10 +3730,10 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B45" t="s">
         <v>264</v>
-      </c>
-      <c r="B45" t="s">
-        <v>265</v>
       </c>
       <c r="C45" s="9">
         <v>38</v>
@@ -3743,20 +3743,20 @@
         <v>827667</v>
       </c>
       <c r="H45" t="s">
+        <v>265</v>
+      </c>
+      <c r="I45" t="s">
         <v>266</v>
-      </c>
-      <c r="I45" t="s">
-        <v>267</v>
       </c>
       <c r="J45" s="5" t="str">
         <f>VLOOKUP(I45,Sheet2!B:C,2,FALSE)</f>
         <v>cdbda2</v>
       </c>
       <c r="N45" t="s">
+        <v>268</v>
+      </c>
+      <c r="O45" t="s">
         <v>269</v>
-      </c>
-      <c r="O45" t="s">
-        <v>270</v>
       </c>
       <c r="P45" s="2" t="str">
         <f>VLOOKUP(O45,Sheet2!B:C,2,FALSE)</f>
@@ -3768,33 +3768,33 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" t="s">
+        <v>271</v>
+      </c>
+      <c r="B46" t="s">
         <v>272</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>273</v>
-      </c>
-      <c r="C46" t="s">
-        <v>274</v>
       </c>
       <c r="D46" s="5" t="str">
         <f>VLOOKUP(C46,Sheet2!B:C,2,FALSE)</f>
         <v>7d745e</v>
       </c>
       <c r="H46" t="s">
+        <v>275</v>
+      </c>
+      <c r="I46" t="s">
         <v>276</v>
-      </c>
-      <c r="I46" t="s">
-        <v>277</v>
       </c>
       <c r="J46" s="5" t="str">
         <f>VLOOKUP(I46,Sheet2!B:C,2,FALSE)</f>
         <v>e9dcc6</v>
       </c>
       <c r="N46" t="s">
+        <v>278</v>
+      </c>
+      <c r="O46" t="s">
         <v>279</v>
-      </c>
-      <c r="O46" t="s">
-        <v>280</v>
       </c>
       <c r="P46" s="2" t="str">
         <f>VLOOKUP(O46,Sheet2!B:C,2,FALSE)</f>
@@ -3806,10 +3806,10 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" t="s">
         <v>282</v>
-      </c>
-      <c r="B47" t="s">
-        <v>283</v>
       </c>
       <c r="C47" s="9">
         <v>1630</v>
@@ -3819,7 +3819,7 @@
         <v>60676C</v>
       </c>
       <c r="H47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I47" s="9">
         <v>1606</v>
@@ -3829,48 +3829,48 @@
         <v>9FA4A5</v>
       </c>
       <c r="N47" t="s">
+        <v>260</v>
+      </c>
+      <c r="O47" t="s">
         <v>261</v>
-      </c>
-      <c r="O47" t="s">
-        <v>262</v>
       </c>
       <c r="P47" s="2" t="str">
         <f>VLOOKUP(O47,Sheet2!B:C,2,FALSE)</f>
         <v>6F3832</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" t="s">
+        <v>286</v>
+      </c>
+      <c r="B48" t="s">
         <v>287</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>288</v>
-      </c>
-      <c r="C48" t="s">
-        <v>289</v>
       </c>
       <c r="D48" s="5" t="str">
         <f>VLOOKUP(C48,Sheet2!B:C,2,FALSE)</f>
         <v>c5b6a4</v>
       </c>
       <c r="H48" t="s">
+        <v>290</v>
+      </c>
+      <c r="I48" t="s">
         <v>291</v>
-      </c>
-      <c r="I48" t="s">
-        <v>292</v>
       </c>
       <c r="J48" s="5" t="str">
         <f>VLOOKUP(I48,Sheet2!B:C,2,FALSE)</f>
         <v>B2AD96</v>
       </c>
       <c r="N48" t="s">
+        <v>293</v>
+      </c>
+      <c r="O48" t="s">
         <v>294</v>
-      </c>
-      <c r="O48" t="s">
-        <v>295</v>
       </c>
       <c r="P48" s="2" t="str">
         <f>VLOOKUP(O48,Sheet2!B:C,2,FALSE)</f>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B49" t="s">
         <v>74</v>
@@ -3895,58 +3895,58 @@
         <v>585858</v>
       </c>
       <c r="H49" t="s">
+        <v>297</v>
+      </c>
+      <c r="I49" t="s">
         <v>298</v>
-      </c>
-      <c r="I49" t="s">
-        <v>299</v>
       </c>
       <c r="J49" s="5" t="str">
         <f>VLOOKUP(I49,Sheet2!B:C,2,FALSE)</f>
         <v>C0C3C3</v>
       </c>
       <c r="N49" t="s">
+        <v>300</v>
+      </c>
+      <c r="O49" t="s">
         <v>301</v>
-      </c>
-      <c r="O49" t="s">
-        <v>302</v>
       </c>
       <c r="P49" s="2">
         <f>VLOOKUP(O49,Sheet2!B:C,2,FALSE)</f>
         <v>424036</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" t="s">
+        <v>302</v>
+      </c>
+      <c r="B50" t="s">
         <v>303</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>304</v>
-      </c>
-      <c r="C50" t="s">
-        <v>305</v>
       </c>
       <c r="D50" s="5" t="str">
         <f>VLOOKUP(C50,Sheet2!B:C,2,FALSE)</f>
         <v>9e9793</v>
       </c>
       <c r="H50" t="s">
+        <v>306</v>
+      </c>
+      <c r="I50" t="s">
         <v>307</v>
-      </c>
-      <c r="I50" t="s">
-        <v>308</v>
       </c>
       <c r="J50" s="5" t="str">
         <f>VLOOKUP(I50,Sheet2!B:C,2,FALSE)</f>
         <v>f2ece6</v>
       </c>
       <c r="N50" t="s">
+        <v>309</v>
+      </c>
+      <c r="O50" t="s">
         <v>310</v>
-      </c>
-      <c r="O50" t="s">
-        <v>311</v>
       </c>
       <c r="P50" s="2" t="str">
         <f>VLOOKUP(O50,Sheet2!B:C,2,FALSE)</f>
@@ -3958,20 +3958,20 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" t="s">
+        <v>312</v>
+      </c>
+      <c r="B51" t="s">
         <v>313</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>314</v>
-      </c>
-      <c r="C51" t="s">
-        <v>315</v>
       </c>
       <c r="D51" s="5" t="str">
         <f>VLOOKUP(C51,Sheet2!B:C,2,FALSE)</f>
         <v>d4ccc3</v>
       </c>
       <c r="H51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J51" s="5" t="e">
         <f>VLOOKUP(I51,Sheet2!B:C,2,FALSE)</f>
@@ -3987,71 +3987,71 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" t="s">
+        <v>317</v>
+      </c>
+      <c r="B52" t="s">
         <v>318</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>319</v>
-      </c>
-      <c r="C52" t="s">
-        <v>320</v>
       </c>
       <c r="D52" s="5" t="str">
         <f>VLOOKUP(C52,Sheet2!B:C,2,FALSE)</f>
         <v>b2ada4</v>
       </c>
       <c r="H52" t="s">
+        <v>321</v>
+      </c>
+      <c r="I52" t="s">
         <v>322</v>
-      </c>
-      <c r="I52" t="s">
-        <v>323</v>
       </c>
       <c r="J52" s="5" t="str">
         <f>VLOOKUP(I52,Sheet2!B:C,2,FALSE)</f>
         <v>dfd9cf</v>
       </c>
       <c r="N52" t="s">
+        <v>149</v>
+      </c>
+      <c r="O52" t="s">
         <v>150</v>
-      </c>
-      <c r="O52" t="s">
-        <v>151</v>
       </c>
       <c r="P52" s="2" t="str">
         <f>VLOOKUP(O52,Sheet2!B:C,2,FALSE)</f>
         <v>3d4450</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" t="s">
+        <v>324</v>
+      </c>
+      <c r="B53" t="s">
         <v>325</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>326</v>
-      </c>
-      <c r="C53" t="s">
-        <v>327</v>
       </c>
       <c r="D53" s="5" t="str">
         <f>VLOOKUP(C53,Sheet2!B:C,2,FALSE)</f>
         <v>8e7f6a</v>
       </c>
       <c r="H53" t="s">
+        <v>328</v>
+      </c>
+      <c r="I53" t="s">
         <v>329</v>
-      </c>
-      <c r="I53" t="s">
-        <v>330</v>
       </c>
       <c r="J53" s="5" t="str">
         <f>VLOOKUP(I53,Sheet2!B:C,2,FALSE)</f>
         <v>e3ded7</v>
       </c>
       <c r="N53" t="s">
+        <v>331</v>
+      </c>
+      <c r="O53" t="s">
         <v>332</v>
-      </c>
-      <c r="O53" t="s">
-        <v>333</v>
       </c>
       <c r="P53" s="2" t="str">
         <f>VLOOKUP(O53,Sheet2!B:C,2,FALSE)</f>
@@ -4063,39 +4063,39 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" t="s">
+        <v>334</v>
+      </c>
+      <c r="B54" t="s">
         <v>335</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>336</v>
-      </c>
-      <c r="C54" t="s">
-        <v>337</v>
       </c>
       <c r="D54" s="5" t="str">
         <f>VLOOKUP(C54,Sheet2!B:C,2,FALSE)</f>
         <v>ccc9c0</v>
       </c>
       <c r="H54" t="s">
+        <v>196</v>
+      </c>
+      <c r="I54" t="s">
         <v>197</v>
-      </c>
-      <c r="I54" t="s">
-        <v>198</v>
       </c>
       <c r="J54" s="5" t="str">
         <f>VLOOKUP(I54,Sheet2!B:C,2,FALSE)</f>
         <v>eeefea</v>
       </c>
       <c r="K54" t="s">
+        <v>83</v>
+      </c>
+      <c r="L54" t="s">
         <v>84</v>
       </c>
-      <c r="L54" t="s">
-        <v>85</v>
-      </c>
       <c r="N54" t="s">
+        <v>338</v>
+      </c>
+      <c r="O54" t="s">
         <v>339</v>
-      </c>
-      <c r="O54" t="s">
-        <v>340</v>
       </c>
       <c r="P54" s="2" t="str">
         <f>VLOOKUP(O54,Sheet2!B:C,2,FALSE)</f>
@@ -4107,32 +4107,32 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B55" t="s">
+        <v>335</v>
+      </c>
+      <c r="C55" t="s">
         <v>336</v>
-      </c>
-      <c r="C55" t="s">
-        <v>337</v>
       </c>
       <c r="D55" s="5" t="str">
         <f>VLOOKUP(C55,Sheet2!B:C,2,FALSE)</f>
         <v>ccc9c0</v>
       </c>
       <c r="E55" t="s">
+        <v>342</v>
+      </c>
+      <c r="F55" t="s">
         <v>343</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>344</v>
       </c>
-      <c r="G55" t="s">
-        <v>345</v>
-      </c>
       <c r="H55" t="s">
+        <v>188</v>
+      </c>
+      <c r="I55" t="s">
         <v>189</v>
-      </c>
-      <c r="I55" t="s">
-        <v>190</v>
       </c>
       <c r="J55" s="5" t="str">
         <f>VLOOKUP(I55,Sheet2!B:C,2,FALSE)</f>
@@ -4154,33 +4154,33 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B56" t="s">
+        <v>335</v>
+      </c>
+      <c r="C56" t="s">
         <v>336</v>
-      </c>
-      <c r="C56" t="s">
-        <v>337</v>
       </c>
       <c r="D56" s="5" t="str">
         <f>VLOOKUP(C56,Sheet2!B:C,2,FALSE)</f>
         <v>ccc9c0</v>
       </c>
       <c r="H56" t="s">
+        <v>196</v>
+      </c>
+      <c r="I56" t="s">
         <v>197</v>
-      </c>
-      <c r="I56" t="s">
-        <v>198</v>
       </c>
       <c r="J56" s="5" t="str">
         <f>VLOOKUP(I56,Sheet2!B:C,2,FALSE)</f>
         <v>eeefea</v>
       </c>
       <c r="N56" t="s">
+        <v>83</v>
+      </c>
+      <c r="O56" t="s">
         <v>84</v>
-      </c>
-      <c r="O56" t="s">
-        <v>85</v>
       </c>
       <c r="P56" s="2" t="str">
         <f>VLOOKUP(O56,Sheet2!B:C,2,FALSE)</f>
@@ -4192,10 +4192,10 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" t="s">
+        <v>346</v>
+      </c>
+      <c r="B57" t="s">
         <v>347</v>
-      </c>
-      <c r="B57" t="s">
-        <v>348</v>
       </c>
       <c r="C57" s="9">
         <v>1595</v>
@@ -4205,20 +4205,20 @@
         <v>6D7272</v>
       </c>
       <c r="H57" t="s">
+        <v>321</v>
+      </c>
+      <c r="I57" t="s">
         <v>322</v>
-      </c>
-      <c r="I57" t="s">
-        <v>323</v>
       </c>
       <c r="J57" s="5" t="str">
         <f>VLOOKUP(I57,Sheet2!B:C,2,FALSE)</f>
         <v>dfd9cf</v>
       </c>
       <c r="N57" t="s">
+        <v>349</v>
+      </c>
+      <c r="O57" t="s">
         <v>350</v>
-      </c>
-      <c r="O57" t="s">
-        <v>351</v>
       </c>
       <c r="P57" s="2" t="str">
         <f>VLOOKUP(O57,Sheet2!B:C,2,FALSE)</f>
@@ -4230,23 +4230,23 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" t="s">
+        <v>352</v>
+      </c>
+      <c r="B58" t="s">
         <v>353</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>354</v>
-      </c>
-      <c r="C58" t="s">
-        <v>355</v>
       </c>
       <c r="D58" s="5" t="str">
         <f>VLOOKUP(C58,Sheet2!B:C,2,FALSE)</f>
         <v>622f2d</v>
       </c>
       <c r="H58" t="s">
+        <v>356</v>
+      </c>
+      <c r="I58" t="s">
         <v>357</v>
-      </c>
-      <c r="I58" t="s">
-        <v>358</v>
       </c>
       <c r="J58" s="5" t="str">
         <f>VLOOKUP(I58,Sheet2!B:C,2,FALSE)</f>
@@ -4262,71 +4262,71 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" t="s">
+        <v>359</v>
+      </c>
+      <c r="B59" t="s">
         <v>360</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>361</v>
-      </c>
-      <c r="C59" t="s">
-        <v>362</v>
       </c>
       <c r="D59" s="5" t="str">
         <f>VLOOKUP(C59,Sheet2!B:C,2,FALSE)</f>
         <v>b0b8b2</v>
       </c>
       <c r="H59" t="s">
+        <v>363</v>
+      </c>
+      <c r="I59" t="s">
         <v>364</v>
-      </c>
-      <c r="I59" t="s">
-        <v>365</v>
       </c>
       <c r="J59" s="5" t="str">
         <f>VLOOKUP(I59,Sheet2!B:C,2,FALSE)</f>
         <v>f8eedb</v>
       </c>
       <c r="N59" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O59" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P59" s="2" t="str">
         <f>VLOOKUP(O59,Sheet2!B:C,2,FALSE)</f>
         <v>622f2d</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" t="s">
+        <v>367</v>
+      </c>
+      <c r="B60" t="s">
         <v>368</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>369</v>
-      </c>
-      <c r="C60" t="s">
-        <v>370</v>
       </c>
       <c r="D60" s="5" t="str">
         <f>VLOOKUP(C60,Sheet2!B:C,2,FALSE)</f>
         <v>dacab2</v>
       </c>
       <c r="H60" t="s">
+        <v>141</v>
+      </c>
+      <c r="I60" t="s">
         <v>142</v>
-      </c>
-      <c r="I60" t="s">
-        <v>143</v>
       </c>
       <c r="J60" s="5">
         <f>VLOOKUP(I60,Sheet2!B:C,2,FALSE)</f>
         <v>827466</v>
       </c>
       <c r="N60" t="s">
+        <v>371</v>
+      </c>
+      <c r="O60" t="s">
         <v>372</v>
-      </c>
-      <c r="O60" t="s">
-        <v>373</v>
       </c>
       <c r="P60" s="2" t="str">
         <f>VLOOKUP(O60,Sheet2!B:C,2,FALSE)</f>
@@ -4338,33 +4338,33 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" t="s">
+        <v>374</v>
+      </c>
+      <c r="B61" t="s">
         <v>375</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>376</v>
-      </c>
-      <c r="C61" t="s">
-        <v>377</v>
       </c>
       <c r="D61" s="5" t="str">
         <f>VLOOKUP(C61,Sheet2!B:C,2,FALSE)</f>
         <v>7f8486</v>
       </c>
       <c r="H61" t="s">
+        <v>378</v>
+      </c>
+      <c r="I61" t="s">
         <v>379</v>
-      </c>
-      <c r="I61" t="s">
-        <v>380</v>
       </c>
       <c r="J61" s="5" t="str">
         <f>VLOOKUP(I61,Sheet2!B:C,2,FALSE)</f>
         <v>d1d2cb</v>
       </c>
       <c r="N61" t="s">
+        <v>168</v>
+      </c>
+      <c r="O61" t="s">
         <v>169</v>
-      </c>
-      <c r="O61" t="s">
-        <v>170</v>
       </c>
       <c r="P61" s="2" t="str">
         <f>VLOOKUP(O61,Sheet2!B:C,2,FALSE)</f>
@@ -4376,23 +4376,23 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B62" t="s">
+        <v>375</v>
+      </c>
+      <c r="C62" t="s">
         <v>376</v>
-      </c>
-      <c r="C62" t="s">
-        <v>377</v>
       </c>
       <c r="D62" s="5" t="str">
         <f>VLOOKUP(C62,Sheet2!B:C,2,FALSE)</f>
         <v>7f8486</v>
       </c>
       <c r="H62" t="s">
+        <v>217</v>
+      </c>
+      <c r="I62" t="s">
         <v>218</v>
-      </c>
-      <c r="I62" t="s">
-        <v>219</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>VLOOKUP(I62,Sheet2!B:C,2,FALSE)</f>
@@ -4403,15 +4403,15 @@
         <v>#N/A</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" t="s">
+        <v>382</v>
+      </c>
+      <c r="B63" t="s">
         <v>383</v>
-      </c>
-      <c r="B63" t="s">
-        <v>384</v>
       </c>
       <c r="C63" s="9">
         <v>1476</v>
@@ -4421,58 +4421,58 @@
         <v>8D8679</v>
       </c>
       <c r="H63" t="s">
+        <v>385</v>
+      </c>
+      <c r="I63" t="s">
         <v>386</v>
-      </c>
-      <c r="I63" t="s">
-        <v>387</v>
       </c>
       <c r="J63" s="5" t="str">
         <f>VLOOKUP(I63,Sheet2!B:C,2,FALSE)</f>
         <v>D3BFA6</v>
       </c>
       <c r="N63" t="s">
+        <v>388</v>
+      </c>
+      <c r="O63" t="s">
         <v>389</v>
-      </c>
-      <c r="O63" t="s">
-        <v>390</v>
       </c>
       <c r="P63" s="2" t="str">
         <f>VLOOKUP(O63,Sheet2!B:C,2,FALSE)</f>
         <v>4A4B4C</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" t="s">
+        <v>391</v>
+      </c>
+      <c r="B64" t="s">
         <v>392</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>393</v>
-      </c>
-      <c r="C64" t="s">
-        <v>394</v>
       </c>
       <c r="D64" s="5" t="str">
         <f>VLOOKUP(C64,Sheet2!B:C,2,FALSE)</f>
         <v>a49689</v>
       </c>
       <c r="H64" t="s">
+        <v>395</v>
+      </c>
+      <c r="I64" t="s">
         <v>396</v>
-      </c>
-      <c r="I64" t="s">
-        <v>397</v>
       </c>
       <c r="J64" s="5" t="str">
         <f>VLOOKUP(I64,Sheet2!B:C,2,FALSE)</f>
         <v>eee9e0</v>
       </c>
       <c r="N64" t="s">
+        <v>242</v>
+      </c>
+      <c r="O64" t="s">
         <v>243</v>
-      </c>
-      <c r="O64" t="s">
-        <v>244</v>
       </c>
       <c r="P64" s="2">
         <f>VLOOKUP(O64,Sheet2!B:C,2,FALSE)</f>
@@ -4484,13 +4484,13 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" t="s">
+        <v>398</v>
+      </c>
+      <c r="B65" t="s">
         <v>399</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>400</v>
-      </c>
-      <c r="C65" t="s">
-        <v>401</v>
       </c>
       <c r="D65" s="5">
         <f>VLOOKUP(C65,Sheet2!B:C,2,FALSE)</f>
@@ -4507,10 +4507,10 @@
         <v>edece6</v>
       </c>
       <c r="N65" t="s">
+        <v>401</v>
+      </c>
+      <c r="O65" t="s">
         <v>402</v>
-      </c>
-      <c r="O65" t="s">
-        <v>403</v>
       </c>
       <c r="P65" s="2" t="str">
         <f>VLOOKUP(O65,Sheet2!B:C,2,FALSE)</f>
@@ -4522,33 +4522,33 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B66" t="s">
+        <v>399</v>
+      </c>
+      <c r="C66" t="s">
         <v>400</v>
-      </c>
-      <c r="C66" t="s">
-        <v>401</v>
       </c>
       <c r="D66" s="5">
         <f>VLOOKUP(C66,Sheet2!B:C,2,FALSE)</f>
         <v>959491</v>
       </c>
       <c r="H66" t="s">
+        <v>306</v>
+      </c>
+      <c r="I66" t="s">
         <v>307</v>
-      </c>
-      <c r="I66" t="s">
-        <v>308</v>
       </c>
       <c r="J66" s="5" t="str">
         <f>VLOOKUP(I66,Sheet2!B:C,2,FALSE)</f>
         <v>f2ece6</v>
       </c>
       <c r="N66" t="s">
+        <v>83</v>
+      </c>
+      <c r="O66" t="s">
         <v>84</v>
-      </c>
-      <c r="O66" t="s">
-        <v>85</v>
       </c>
       <c r="P66" s="2" t="str">
         <f>VLOOKUP(O66,Sheet2!B:C,2,FALSE)</f>
@@ -4560,23 +4560,23 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" t="s">
+        <v>405</v>
+      </c>
+      <c r="B67" t="s">
         <v>406</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>407</v>
-      </c>
-      <c r="C67" t="s">
-        <v>408</v>
       </c>
       <c r="D67" s="5">
         <f>VLOOKUP(C67,Sheet2!B:C,2,FALSE)</f>
         <v>896656</v>
       </c>
       <c r="H67" t="s">
+        <v>408</v>
+      </c>
+      <c r="I67" t="s">
         <v>409</v>
-      </c>
-      <c r="I67" t="s">
-        <v>410</v>
       </c>
       <c r="J67" s="5" t="str">
         <f>VLOOKUP(I67,Sheet2!B:C,2,FALSE)</f>
@@ -4592,33 +4592,33 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" t="s">
+        <v>411</v>
+      </c>
+      <c r="B68" t="s">
         <v>412</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>413</v>
-      </c>
-      <c r="C68" t="s">
-        <v>414</v>
       </c>
       <c r="D68" s="5" t="str">
         <f>VLOOKUP(C68,Sheet2!B:C,2,FALSE)</f>
         <v>BA9D75</v>
       </c>
       <c r="H68" t="s">
+        <v>415</v>
+      </c>
+      <c r="I68" t="s">
         <v>416</v>
-      </c>
-      <c r="I68" t="s">
-        <v>417</v>
       </c>
       <c r="J68" s="5" t="str">
         <f>VLOOKUP(I68,Sheet2!B:C,2,FALSE)</f>
         <v>DBC7A6</v>
       </c>
       <c r="N68" t="s">
+        <v>418</v>
+      </c>
+      <c r="O68" t="s">
         <v>419</v>
-      </c>
-      <c r="O68" t="s">
-        <v>420</v>
       </c>
       <c r="P68" s="2">
         <f>VLOOKUP(O68,Sheet2!B:C,2,FALSE)</f>
@@ -4630,33 +4630,33 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" t="s">
+        <v>420</v>
+      </c>
+      <c r="B69" t="s">
         <v>421</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>422</v>
-      </c>
-      <c r="C69" t="s">
-        <v>423</v>
       </c>
       <c r="D69" s="5" t="str">
         <f>VLOOKUP(C69,Sheet2!B:C,2,FALSE)</f>
         <v>ada090</v>
       </c>
       <c r="H69" t="s">
+        <v>424</v>
+      </c>
+      <c r="I69" t="s">
         <v>425</v>
-      </c>
-      <c r="I69" t="s">
-        <v>426</v>
       </c>
       <c r="J69" s="5" t="str">
         <f>VLOOKUP(I69,Sheet2!B:C,2,FALSE)</f>
         <v>56433b</v>
       </c>
       <c r="N69" t="s">
+        <v>427</v>
+      </c>
+      <c r="O69" t="s">
         <v>428</v>
-      </c>
-      <c r="O69" t="s">
-        <v>429</v>
       </c>
       <c r="P69" s="2">
         <f>VLOOKUP(O69,Sheet2!B:C,2,FALSE)</f>
@@ -4668,71 +4668,71 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" t="s">
+        <v>429</v>
+      </c>
+      <c r="B70" t="s">
         <v>430</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>431</v>
-      </c>
-      <c r="C70" t="s">
-        <v>432</v>
       </c>
       <c r="D70" s="5" t="str">
         <f>VLOOKUP(C70,Sheet2!B:C,2,FALSE)</f>
         <v>9c8a79</v>
       </c>
       <c r="H70" t="s">
+        <v>433</v>
+      </c>
+      <c r="I70" t="s">
         <v>434</v>
-      </c>
-      <c r="I70" t="s">
-        <v>435</v>
       </c>
       <c r="J70" s="5" t="str">
         <f>VLOOKUP(I70,Sheet2!B:C,2,FALSE)</f>
         <v>d8cfbe</v>
       </c>
       <c r="N70" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O70" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P70" s="2" t="str">
         <f>VLOOKUP(O70,Sheet2!B:C,2,FALSE)</f>
         <v>9e9793</v>
       </c>
       <c r="Q70" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" t="s">
+        <v>437</v>
+      </c>
+      <c r="B71" t="s">
         <v>438</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>439</v>
-      </c>
-      <c r="C71" t="s">
-        <v>440</v>
       </c>
       <c r="D71" s="5" t="str">
         <f>VLOOKUP(C71,Sheet2!B:C,2,FALSE)</f>
         <v>826f5e</v>
       </c>
       <c r="H71" t="s">
+        <v>441</v>
+      </c>
+      <c r="I71" t="s">
         <v>442</v>
-      </c>
-      <c r="I71" t="s">
-        <v>443</v>
       </c>
       <c r="J71" s="5" t="str">
         <f>VLOOKUP(I71,Sheet2!B:C,2,FALSE)</f>
         <v>c4b7a5</v>
       </c>
       <c r="N71" t="s">
+        <v>444</v>
+      </c>
+      <c r="O71" t="s">
         <v>445</v>
-      </c>
-      <c r="O71" t="s">
-        <v>446</v>
       </c>
       <c r="P71" s="2" t="str">
         <f>VLOOKUP(O71,Sheet2!B:C,2,FALSE)</f>
@@ -4744,80 +4744,80 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" t="s">
+        <v>447</v>
+      </c>
+      <c r="B72" t="s">
         <v>448</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>449</v>
-      </c>
-      <c r="C72" t="s">
-        <v>450</v>
       </c>
       <c r="D72" s="5" t="str">
         <f>VLOOKUP(C72,Sheet2!B:C,2,FALSE)</f>
         <v>e7e2da</v>
       </c>
       <c r="H72" t="s">
+        <v>451</v>
+      </c>
+      <c r="I72" t="s">
         <v>452</v>
-      </c>
-      <c r="I72" t="s">
-        <v>453</v>
       </c>
       <c r="J72" s="5" t="str">
         <f>VLOOKUP(I72,Sheet2!B:C,2,FALSE)</f>
         <v>a0a5a7</v>
       </c>
       <c r="N72" t="s">
+        <v>168</v>
+      </c>
+      <c r="O72" t="s">
         <v>169</v>
-      </c>
-      <c r="O72" t="s">
-        <v>170</v>
       </c>
       <c r="P72" s="2" t="str">
         <f>VLOOKUP(O72,Sheet2!B:C,2,FALSE)</f>
         <v>44484d</v>
       </c>
       <c r="Q72" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" t="s">
+        <v>454</v>
+      </c>
+      <c r="B73" t="s">
         <v>455</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>456</v>
-      </c>
-      <c r="C73" t="s">
-        <v>457</v>
       </c>
       <c r="D73" s="5" t="str">
         <f>VLOOKUP(C73,Sheet2!B:C,2,FALSE)</f>
         <v>b59f8f</v>
       </c>
       <c r="E73" t="s">
+        <v>458</v>
+      </c>
+      <c r="F73" t="s">
         <v>459</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>460</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>461</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>462</v>
-      </c>
-      <c r="I73" t="s">
-        <v>463</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>VLOOKUP(I73,Sheet2!B:C,2,FALSE)</f>
         <v>f4dec3</v>
       </c>
       <c r="N73" t="s">
+        <v>464</v>
+      </c>
+      <c r="O73" t="s">
         <v>465</v>
-      </c>
-      <c r="O73" t="s">
-        <v>466</v>
       </c>
       <c r="P73" s="2" t="str">
         <f>VLOOKUP(O73,Sheet2!B:C,2,FALSE)</f>
@@ -4829,48 +4829,48 @@
     </row>
     <row r="74" spans="1:17">
       <c r="A74" t="s">
+        <v>467</v>
+      </c>
+      <c r="B74" t="s">
         <v>468</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>469</v>
-      </c>
-      <c r="C74" t="s">
-        <v>470</v>
       </c>
       <c r="D74" s="5" t="str">
         <f>VLOOKUP(C74,Sheet2!B:C,2,FALSE)</f>
         <v>887b6c</v>
       </c>
       <c r="H74" t="s">
+        <v>471</v>
+      </c>
+      <c r="I74" t="s">
         <v>472</v>
-      </c>
-      <c r="I74" t="s">
-        <v>473</v>
       </c>
       <c r="J74" s="5" t="str">
         <f>VLOOKUP(I74,Sheet2!B:C,2,FALSE)</f>
         <v>bfb6aa</v>
       </c>
       <c r="N74" t="s">
+        <v>149</v>
+      </c>
+      <c r="O74" t="s">
         <v>150</v>
-      </c>
-      <c r="O74" t="s">
-        <v>151</v>
       </c>
       <c r="P74" s="2" t="str">
         <f>VLOOKUP(O74,Sheet2!B:C,2,FALSE)</f>
         <v>3d4450</v>
       </c>
       <c r="Q74" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" t="s">
+        <v>474</v>
+      </c>
+      <c r="B75" t="s">
         <v>475</v>
-      </c>
-      <c r="B75" t="s">
-        <v>476</v>
       </c>
       <c r="C75" s="9">
         <v>1544</v>
@@ -4880,17 +4880,17 @@
         <v>A6998C</v>
       </c>
       <c r="H75" t="s">
+        <v>477</v>
+      </c>
+      <c r="I75" t="s">
         <v>478</v>
-      </c>
-      <c r="I75" t="s">
-        <v>479</v>
       </c>
       <c r="J75" s="5">
         <f>VLOOKUP(I75,Sheet2!B:C,2,FALSE)</f>
         <v>928478</v>
       </c>
       <c r="N75" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="O75" s="9">
         <v>984</v>
@@ -4905,33 +4905,33 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" t="s">
+        <v>481</v>
+      </c>
+      <c r="B76" t="s">
         <v>482</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>483</v>
-      </c>
-      <c r="C76" t="s">
-        <v>484</v>
       </c>
       <c r="D76" s="5">
         <f>VLOOKUP(C76,Sheet2!B:C,2,FALSE)</f>
         <v>616669</v>
       </c>
       <c r="H76" t="s">
+        <v>173</v>
+      </c>
+      <c r="I76" t="s">
         <v>174</v>
-      </c>
-      <c r="I76" t="s">
-        <v>175</v>
       </c>
       <c r="J76" s="5" t="str">
         <f>VLOOKUP(I76,Sheet2!B:C,2,FALSE)</f>
         <v>f3eee3</v>
       </c>
       <c r="N76" t="s">
+        <v>484</v>
+      </c>
+      <c r="O76" t="s">
         <v>485</v>
-      </c>
-      <c r="O76" t="s">
-        <v>486</v>
       </c>
       <c r="P76" s="2" t="str">
         <f>VLOOKUP(O76,Sheet2!B:C,2,FALSE)</f>
@@ -4943,33 +4943,33 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B77" t="s">
+        <v>482</v>
+      </c>
+      <c r="C77" t="s">
         <v>483</v>
-      </c>
-      <c r="C77" t="s">
-        <v>484</v>
       </c>
       <c r="D77" s="5">
         <f>VLOOKUP(C77,Sheet2!B:C,2,FALSE)</f>
         <v>616669</v>
       </c>
       <c r="H77" t="s">
+        <v>177</v>
+      </c>
+      <c r="I77" t="s">
         <v>178</v>
-      </c>
-      <c r="I77" t="s">
-        <v>179</v>
       </c>
       <c r="J77" s="5" t="str">
         <f>VLOOKUP(I77,Sheet2!B:C,2,FALSE)</f>
         <v>edeae5</v>
       </c>
       <c r="N77" t="s">
+        <v>224</v>
+      </c>
+      <c r="O77" t="s">
         <v>225</v>
-      </c>
-      <c r="O77" t="s">
-        <v>226</v>
       </c>
       <c r="P77" s="2">
         <f>VLOOKUP(O77,Sheet2!B:C,2,FALSE)</f>
@@ -4981,23 +4981,23 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B78" t="s">
+        <v>482</v>
+      </c>
+      <c r="C78" t="s">
         <v>483</v>
-      </c>
-      <c r="C78" t="s">
-        <v>484</v>
       </c>
       <c r="D78" s="5">
         <f>VLOOKUP(C78,Sheet2!B:C,2,FALSE)</f>
         <v>616669</v>
       </c>
       <c r="H78" t="s">
+        <v>489</v>
+      </c>
+      <c r="I78" t="s">
         <v>490</v>
-      </c>
-      <c r="I78" t="s">
-        <v>491</v>
       </c>
       <c r="J78" s="5" t="str">
         <f>VLOOKUP(I78,Sheet2!B:C,2,FALSE)</f>
@@ -5013,33 +5013,33 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B79" t="s">
+        <v>482</v>
+      </c>
+      <c r="C79" t="s">
         <v>483</v>
-      </c>
-      <c r="C79" t="s">
-        <v>484</v>
       </c>
       <c r="D79" s="5">
         <f>VLOOKUP(C79,Sheet2!B:C,2,FALSE)</f>
         <v>616669</v>
       </c>
       <c r="H79" t="s">
+        <v>177</v>
+      </c>
+      <c r="I79" t="s">
         <v>178</v>
-      </c>
-      <c r="I79" t="s">
-        <v>179</v>
       </c>
       <c r="J79" s="5" t="str">
         <f>VLOOKUP(I79,Sheet2!B:C,2,FALSE)</f>
         <v>edeae5</v>
       </c>
       <c r="N79" t="s">
+        <v>493</v>
+      </c>
+      <c r="O79" t="s">
         <v>494</v>
-      </c>
-      <c r="O79" t="s">
-        <v>495</v>
       </c>
       <c r="P79" s="2" t="str">
         <f>VLOOKUP(O79,Sheet2!B:C,2,FALSE)</f>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D80" s="5" t="e">
         <f>VLOOKUP(C80,Sheet2!B:C,2,FALSE)</f>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D81" s="5" t="e">
         <f>VLOOKUP(C81,Sheet2!B:C,2,FALSE)</f>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D82" s="5" t="e">
         <f>VLOOKUP(C82,Sheet2!B:C,2,FALSE)</f>
@@ -5106,12 +5106,12 @@
         <v>#N/A</v>
       </c>
       <c r="Q82" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D83" s="5" t="e">
         <f>VLOOKUP(C83,Sheet2!B:C,2,FALSE)</f>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D84" s="5" t="e">
         <f>VLOOKUP(C84,Sheet2!B:C,2,FALSE)</f>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D85" s="5" t="e">
         <f>VLOOKUP(C85,Sheet2!B:C,2,FALSE)</f>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="86" spans="1:17">
       <c r="A86" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D86" s="5" t="e">
         <f>VLOOKUP(C86,Sheet2!B:C,2,FALSE)</f>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="87" spans="1:17">
       <c r="A87" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D87" s="5" t="e">
         <f>VLOOKUP(C87,Sheet2!B:C,2,FALSE)</f>
@@ -5211,7 +5211,7 @@
     </row>
     <row r="88" spans="1:17">
       <c r="A88" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D88" s="5" t="e">
         <f>VLOOKUP(C88,Sheet2!B:C,2,FALSE)</f>
@@ -5231,7 +5231,7 @@
     </row>
     <row r="89" spans="1:17">
       <c r="A89" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D89" s="5" t="e">
         <f>VLOOKUP(C89,Sheet2!B:C,2,FALSE)</f>
@@ -5251,7 +5251,7 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D90" s="5" t="e">
         <f>VLOOKUP(C90,Sheet2!B:C,2,FALSE)</f>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D91" s="5" t="e">
         <f>VLOOKUP(C91,Sheet2!B:C,2,FALSE)</f>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D92" s="5" t="e">
         <f>VLOOKUP(C92,Sheet2!B:C,2,FALSE)</f>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D93" s="5" t="e">
         <f>VLOOKUP(C93,Sheet2!B:C,2,FALSE)</f>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D94" s="5" t="e">
         <f>VLOOKUP(C94,Sheet2!B:C,2,FALSE)</f>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D95" s="5" t="e">
         <f>VLOOKUP(C95,Sheet2!B:C,2,FALSE)</f>
@@ -5371,13 +5371,13 @@
     </row>
     <row r="96" spans="1:17">
       <c r="A96" t="s">
+        <v>512</v>
+      </c>
+      <c r="B96" t="s">
         <v>513</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>514</v>
-      </c>
-      <c r="C96" t="s">
-        <v>515</v>
       </c>
       <c r="D96" s="5" t="str">
         <f>VLOOKUP(C96,Sheet2!B:C,2,FALSE)</f>
@@ -5394,10 +5394,10 @@
         <v>efe8db</v>
       </c>
       <c r="N96" t="s">
+        <v>516</v>
+      </c>
+      <c r="O96" t="s">
         <v>517</v>
-      </c>
-      <c r="O96" t="s">
-        <v>518</v>
       </c>
       <c r="P96" s="2">
         <f>VLOOKUP(O96,Sheet2!B:C,2,FALSE)</f>
@@ -5409,23 +5409,23 @@
     </row>
     <row r="97" spans="1:17">
       <c r="A97" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B97" t="s">
+        <v>287</v>
+      </c>
+      <c r="C97" t="s">
         <v>288</v>
-      </c>
-      <c r="C97" t="s">
-        <v>289</v>
       </c>
       <c r="D97" s="5" t="str">
         <f>VLOOKUP(C97,Sheet2!B:C,2,FALSE)</f>
         <v>c5b6a4</v>
       </c>
       <c r="H97" t="s">
+        <v>519</v>
+      </c>
+      <c r="I97" t="s">
         <v>520</v>
-      </c>
-      <c r="I97" t="s">
-        <v>521</v>
       </c>
       <c r="J97" s="5" t="str">
         <f>VLOOKUP(I97,Sheet2!B:C,2,FALSE)</f>
@@ -5441,20 +5441,20 @@
     </row>
     <row r="98" spans="1:17">
       <c r="A98" t="s">
+        <v>522</v>
+      </c>
+      <c r="B98" t="s">
         <v>523</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>524</v>
-      </c>
-      <c r="C98" t="s">
-        <v>525</v>
       </c>
       <c r="D98" s="5" t="str">
         <f>VLOOKUP(C98,Sheet2!B:C,2,FALSE)</f>
         <v>9F9076</v>
       </c>
       <c r="H98" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I98" t="s">
         <v>42</v>
@@ -5473,20 +5473,20 @@
     </row>
     <row r="99" spans="1:17">
       <c r="A99" t="s">
+        <v>527</v>
+      </c>
+      <c r="B99" t="s">
         <v>528</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>529</v>
-      </c>
-      <c r="C99" t="s">
-        <v>530</v>
       </c>
       <c r="D99" s="5" t="str">
         <f>VLOOKUP(C99,Sheet2!B:C,2,FALSE)</f>
         <v>a19c8f</v>
       </c>
       <c r="H99" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I99" s="9">
         <v>2511</v>
@@ -5496,10 +5496,10 @@
         <v>F4E9D5</v>
       </c>
       <c r="N99" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="O99" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="P99" s="2" t="str">
         <f>VLOOKUP(O99,Sheet2!B:C,2,FALSE)</f>
@@ -5511,23 +5511,23 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B100" t="s">
+        <v>528</v>
+      </c>
+      <c r="C100" t="s">
         <v>529</v>
-      </c>
-      <c r="C100" t="s">
-        <v>530</v>
       </c>
       <c r="D100" s="5" t="str">
         <f>VLOOKUP(C100,Sheet2!B:C,2,FALSE)</f>
         <v>a19c8f</v>
       </c>
       <c r="H100" t="s">
+        <v>536</v>
+      </c>
+      <c r="I100" t="s">
         <v>537</v>
-      </c>
-      <c r="I100" t="s">
-        <v>538</v>
       </c>
       <c r="J100" s="5" t="str">
         <f>VLOOKUP(I100,Sheet2!B:C,2,FALSE)</f>
@@ -5550,8 +5550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5F3ACB-48A3-4681-8305-01F477ABA308}">
   <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5573,13 +5573,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5595,68 +5595,68 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5672,21 +5672,21 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="C12" s="5">
         <v>323132</v>
@@ -5694,10 +5694,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="C13" s="5">
         <v>545852</v>
@@ -5711,29 +5711,29 @@
         <v>1637</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5749,13 +5749,13 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5771,35 +5771,35 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>493</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B21" s="2">
         <v>1606</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75">
       <c r="A22" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="2">
         <v>5404</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>80</v>
+      <c r="C22" s="7" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5815,171 +5815,171 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B24" s="2">
         <v>2511</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="5"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="5" t="s">
         <v>311</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
+        <v>513</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>542</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
+        <v>408</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>427</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="C39" s="5">
         <v>723941</v>
@@ -5987,21 +5987,21 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
+        <v>444</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C41" s="5">
         <v>827466</v>
@@ -6009,46 +6009,46 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
+        <v>415</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="5" t="s">
         <v>417</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -6064,24 +6064,24 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>433</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6097,32 +6097,32 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>489</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="5" t="s">
         <v>491</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>401</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="5" t="s">
         <v>403</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="C52" s="5">
         <v>636562</v>
@@ -6130,76 +6130,76 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
+        <v>464</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
+        <v>306</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
+        <v>461</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="5" t="s">
         <v>463</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C59" s="5">
         <v>283849</v>
@@ -6207,24 +6207,24 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>328</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="5" t="s">
         <v>330</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6240,40 +6240,40 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B66" s="2">
         <v>38</v>
@@ -6284,57 +6284,57 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
+        <v>293</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="5" t="s">
         <v>295</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
+        <v>441</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
+        <v>395</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="5" t="s">
         <v>397</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
+        <v>356</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="5" t="s">
         <v>358</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>272</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="5" t="s">
         <v>274</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -6350,24 +6350,24 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>342</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>275</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -6383,46 +6383,46 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>458</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B77" s="2">
         <v>1630</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>424</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>287</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -6438,24 +6438,24 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>303</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>313</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="5" t="s">
         <v>315</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -6471,21 +6471,21 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>325</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="C84" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
+        <v>516</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="C85" s="5">
         <v>244653</v>
@@ -6493,65 +6493,65 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
+        <v>265</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="C86" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
+        <v>533</v>
+      </c>
+      <c r="B87" t="s">
+        <v>533</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="B87" t="s">
-        <v>534</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
+        <v>335</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="C88" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="C90" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="C91" s="5">
         <v>443735</v>
@@ -6559,54 +6559,54 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
+        <v>353</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="5" t="s">
         <v>355</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
+        <v>523</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="C94" s="5" t="s">
         <v>525</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
+        <v>528</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="5" t="s">
         <v>530</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>242</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="C96" s="5">
         <v>803532</v>
@@ -6614,57 +6614,57 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
+        <v>248</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
+        <v>484</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
+        <v>385</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="5" t="s">
         <v>387</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>338</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -6680,76 +6680,76 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
+        <v>378</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="C103" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
+        <v>177</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="C104" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C105" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
+        <v>368</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="C106" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
+        <v>375</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="C107" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B108" s="2">
         <v>1476</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
+        <v>477</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>479</v>
       </c>
       <c r="C109" s="5">
         <v>928478</v>
@@ -6757,54 +6757,54 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
+        <v>519</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="C110" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
+        <v>392</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="5" t="s">
         <v>394</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B112" s="2">
         <v>984</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
+        <v>331</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="C113" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
+        <v>399</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="C114" s="5">
         <v>959491</v>
@@ -6823,21 +6823,21 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
+        <v>290</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
+        <v>406</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="C117" s="5">
         <v>896656</v>
@@ -6845,62 +6845,62 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
+        <v>412</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
+        <v>421</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="5" t="s">
         <v>423</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
+        <v>430</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="5" t="s">
         <v>432</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
+        <v>268</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
+        <v>438</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>42</v>
@@ -6911,87 +6911,87 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
+        <v>83</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
+        <v>455</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C125" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
+        <v>237</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
+        <v>234</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C127" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>278</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="5" t="s">
         <v>280</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>468</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="C129" s="5" t="s">
         <v>470</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B130" s="2">
         <v>1544</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
+        <v>482</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="C131" s="5">
         <v>616669</v>
@@ -6999,10 +6999,10 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C132" s="5">
         <v>564537</v>
@@ -7010,65 +7010,65 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
+        <v>173</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="C133" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
+        <v>92</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="C134" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="C134" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
+        <v>388</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="C135" s="5" t="s">
         <v>390</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
+        <v>536</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="C136" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15.75">
       <c r="A137" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C137" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C138" s="8">
         <v>424036</v>
@@ -7087,137 +7087,138 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="C140" s="8" t="s">
         <v>450</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B141" s="2">
         <v>1595</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="C142" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="8" t="s">
         <v>362</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="C144" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="C145" s="8" t="s">
         <v>453</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="C146" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="C148" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="C149" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="C150" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C151" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Paint_database2.xlsx
+++ b/data/Paint_database2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\NEWLIN_MEADOWS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A388742E-B7D5-4802-90E2-D62635BF2C51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DF1FFC-70DD-4739-A82E-1EC8F08FD077}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="552">
   <si>
     <t>Address</t>
   </si>
@@ -1667,6 +1667,27 @@
   </si>
   <si>
     <t>7C7369</t>
+  </si>
+  <si>
+    <t>11863 S ROCK WILLOW WAY</t>
+  </si>
+  <si>
+    <t>SW2085</t>
+  </si>
+  <si>
+    <t>SW2065</t>
+  </si>
+  <si>
+    <t>Zeus</t>
+  </si>
+  <si>
+    <t>9A9281</t>
+  </si>
+  <si>
+    <t>Windsor Greige</t>
+  </si>
+  <si>
+    <t>C4B59D</t>
   </si>
 </sst>
 </file>
@@ -2057,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="M109" sqref="M109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5541,17 +5562,46 @@
         <v>2015</v>
       </c>
     </row>
+    <row r="101" spans="1:17">
+      <c r="A101" t="s">
+        <v>545</v>
+      </c>
+      <c r="B101" t="s">
+        <v>548</v>
+      </c>
+      <c r="C101" t="s">
+        <v>546</v>
+      </c>
+      <c r="D101" s="5" t="str">
+        <f>VLOOKUP(C101,Sheet2!B:C,2,FALSE)</f>
+        <v>9A9281</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I101" t="s">
+        <v>547</v>
+      </c>
+      <c r="J101" s="5" t="str">
+        <f>VLOOKUP(I101,Sheet2!B:C,2,FALSE)</f>
+        <v>C4B59D</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>2015</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5F3ACB-48A3-4681-8305-01F477ABA308}">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F160" sqref="F160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7217,6 +7267,28 @@
         <v>351</v>
       </c>
     </row>
+    <row r="152" spans="1:3" ht="15.75">
+      <c r="A152" t="s">
+        <v>548</v>
+      </c>
+      <c r="B152" t="s">
+        <v>546</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.75">
+      <c r="A153" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B153" t="s">
+        <v>547</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
